--- a/data/cns_infrastructure.xlsx
+++ b/data/cns_infrastructure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E08DAD-414C-494F-99DE-F58724DB976E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC7E5F4-51F4-4D89-83B8-ADA1B8BC73D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="64">
   <si>
     <t>State</t>
   </si>
@@ -226,16 +226,22 @@
     <t>PSR</t>
   </si>
   <si>
-    <t>SSR</t>
-  </si>
-  <si>
-    <t>Mode S</t>
-  </si>
-  <si>
-    <t>WAM / ADS-B</t>
-  </si>
-  <si>
     <t>ADS-B</t>
+  </si>
+  <si>
+    <t>Mode A/C</t>
+  </si>
+  <si>
+    <t>Mode-S</t>
+  </si>
+  <si>
+    <t>WAM/ADS-B</t>
+  </si>
+  <si>
+    <t>Bosnia &amp; Herzegovina</t>
+  </si>
+  <si>
+    <t>Turkey</t>
   </si>
 </sst>
 </file>
@@ -273,7 +279,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,22 +581,22 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2452,10 +2458,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D461FC-19FE-4B27-93E8-AC7078BCA6DD}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2471,23 +2477,23 @@
         <v>57</v>
       </c>
       <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C2">
@@ -2496,10 +2502,10 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2513,13 +2519,13 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2537,287 +2543,287 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>44</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>30</v>
-      </c>
-      <c r="F12">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E14">
-        <v>113</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F15">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="E16">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <v>57</v>
-      </c>
-      <c r="E17">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -2825,247 +2831,247 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
+        <v>48</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D22">
-        <v>49</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
         <v>30</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>6</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
-      <c r="F25" t="s">
-        <v>9</v>
+      <c r="F25">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
+        <v>53</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E27">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E30">
-        <v>19</v>
-      </c>
-      <c r="F30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3074,316 +3080,217 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>82</v>
-      </c>
-      <c r="F32">
-        <v>18</v>
+        <v>60</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33">
+        <v>51</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
         <v>5</v>
       </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>18</v>
-      </c>
       <c r="E33">
-        <v>10</v>
-      </c>
-      <c r="F33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D34">
         <v>7</v>
       </c>
-      <c r="E34">
-        <v>76</v>
+      <c r="E34" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>9</v>
-      </c>
-      <c r="E35">
-        <v>36</v>
-      </c>
-      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" t="s">
-        <v>9</v>
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>40</v>
+      </c>
+      <c r="E36">
+        <v>36</v>
+      </c>
+      <c r="F36">
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s">
-        <v>9</v>
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>5</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D38">
-        <v>4</v>
-      </c>
-      <c r="E38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E39">
-        <v>26</v>
-      </c>
-      <c r="F39" t="s">
-        <v>9</v>
+        <v>37</v>
+      </c>
+      <c r="F39">
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C40">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D40">
-        <v>23</v>
-      </c>
-      <c r="E40">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F40">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E41">
-        <v>80</v>
-      </c>
-      <c r="F41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42">
-        <v>11</v>
-      </c>
-      <c r="E42">
         <v>38</v>
       </c>
-      <c r="F42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43">
-        <v>30</v>
-      </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44">
-        <v>9</v>
-      </c>
-      <c r="D44">
-        <v>16</v>
-      </c>
-      <c r="E44">
-        <v>18</v>
-      </c>
-      <c r="F44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45">
-        <v>13</v>
-      </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45">
-        <v>59</v>
-      </c>
-      <c r="E45">
-        <v>38</v>
-      </c>
-      <c r="F45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46">
-        <v>154</v>
-      </c>
-      <c r="C46">
-        <v>170</v>
-      </c>
-      <c r="D46">
-        <v>499</v>
-      </c>
-      <c r="E46">
-        <v>889</v>
-      </c>
-      <c r="F46">
-        <v>124</v>
+      <c r="F41" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/cns_infrastructure.xlsx
+++ b/data/cns_infrastructure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC7E5F4-51F4-4D89-83B8-ADA1B8BC73D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFED14E3-A6A1-4B28-9EFA-456C24A205EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="navaids1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="69">
   <si>
     <t>State</t>
   </si>
@@ -242,15 +242,90 @@
   </si>
   <si>
     <t>Turkey</t>
+  </si>
+  <si>
+    <r>
+      <t>Montenegro</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Portugal</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Serbia</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Spain</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -277,9 +352,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A46" sqref="A2:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,9 +1295,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
@@ -1336,9 +1410,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B34">
         <v>13</v>
@@ -1405,9 +1479,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
@@ -1474,9 +1548,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -1636,12 +1710,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A29" location="_ftn2" display="_ftn2" xr:uid="{31D0D27A-711A-43DB-B9D3-95BC1BB08E00}"/>
-    <hyperlink ref="A34" location="_ftn3" display="_ftn3" xr:uid="{B67B86E0-8B42-451F-B6A8-1D5A6B0F728E}"/>
-    <hyperlink ref="A37" location="_ftn4" display="_ftn4" xr:uid="{98130300-5A26-48EF-A444-883A27A8202D}"/>
-    <hyperlink ref="A40" location="_ftn5" display="_ftn5" xr:uid="{94B6A8F7-E627-4612-9DBD-E5051FD2D2D7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1651,7 +1719,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2139,9 +2207,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
@@ -2224,9 +2292,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2275,9 +2343,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2326,9 +2394,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2446,22 +2514,16 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A29" location="_ftn2" display="_ftn2" xr:uid="{32ECE1F9-E3C8-45D6-9A1A-4022BBD327C4}"/>
-    <hyperlink ref="A34" location="_ftn3" display="_ftn3" xr:uid="{A465B5A7-9B68-4E8B-884B-2B3F8A49776C}"/>
-    <hyperlink ref="A37" location="_ftn4" display="_ftn4" xr:uid="{3C3C9533-33B0-47F4-824D-A4D147AE9DC3}"/>
-    <hyperlink ref="A40" location="_ftn5" display="_ftn5" xr:uid="{10D8B6CB-4971-4DAC-8BDE-0CFC1C1609BA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D461FC-19FE-4B27-93E8-AC7078BCA6DD}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2493,7 +2555,7 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2">
@@ -2505,7 +2567,7 @@
       <c r="E2">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2525,7 +2587,7 @@
       <c r="E3">
         <v>28</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2545,7 +2607,7 @@
       <c r="E4">
         <v>74</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2562,10 +2624,10 @@
       <c r="D5">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2576,16 +2638,16 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2605,7 +2667,7 @@
       <c r="E7">
         <v>44</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2613,16 +2675,16 @@
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8">
@@ -2636,13 +2698,13 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
         <v>6</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9">
@@ -2656,7 +2718,7 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10">
@@ -2665,7 +2727,7 @@
       <c r="E10">
         <v>40</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2693,7 +2755,7 @@
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12">
@@ -2705,7 +2767,7 @@
       <c r="E12">
         <v>26</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2713,19 +2775,19 @@
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13">
         <v>117</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2753,10 +2815,10 @@
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15">
@@ -2799,13 +2861,13 @@
       <c r="C17">
         <v>13</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2816,13 +2878,13 @@
       <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
         <v>12</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>9</v>
       </c>
       <c r="F18">
@@ -2833,7 +2895,7 @@
       <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19">
@@ -2842,10 +2904,10 @@
       <c r="D19">
         <v>4</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2862,7 +2924,7 @@
       <c r="D20">
         <v>7</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>9</v>
       </c>
       <c r="F20">
@@ -2876,16 +2938,16 @@
       <c r="B21">
         <v>25</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21">
         <v>48</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2896,16 +2958,16 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22">
         <v>6</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2916,7 +2978,7 @@
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23">
@@ -2925,7 +2987,7 @@
       <c r="E23">
         <v>30</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2942,10 +3004,10 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2982,7 +3044,7 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>9</v>
       </c>
       <c r="F26">
@@ -2993,10 +3055,10 @@
       <c r="A27" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27">
@@ -3005,7 +3067,7 @@
       <c r="E27">
         <v>15</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3022,10 +3084,10 @@
       <c r="D28">
         <v>10</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3042,7 +3104,7 @@
       <c r="D29">
         <v>13</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>9</v>
       </c>
       <c r="F29">
@@ -3065,7 +3127,7 @@
       <c r="E30">
         <v>180</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3105,7 +3167,7 @@
       <c r="E32">
         <v>60</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3113,10 +3175,10 @@
       <c r="A33" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
         <v>9</v>
       </c>
       <c r="D33">
@@ -3125,7 +3187,7 @@
       <c r="E33">
         <v>43</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3136,13 +3198,13 @@
       <c r="B34">
         <v>2</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>9</v>
       </c>
       <c r="D34">
         <v>7</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>9</v>
       </c>
       <c r="F34">
@@ -3162,10 +3224,10 @@
       <c r="D35">
         <v>4</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3205,7 +3267,7 @@
       <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3216,16 +3278,16 @@
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>9</v>
       </c>
       <c r="D38">
         <v>15</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3233,10 +3295,10 @@
       <c r="A39" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
         <v>9</v>
       </c>
       <c r="D39">
@@ -3253,7 +3315,7 @@
       <c r="A40" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>9</v>
       </c>
       <c r="C40">
@@ -3262,7 +3324,7 @@
       <c r="D40">
         <v>16</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>9</v>
       </c>
       <c r="F40">
@@ -3285,8 +3347,28 @@
       <c r="E41">
         <v>38</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>9</v>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42">
+        <v>142</v>
+      </c>
+      <c r="C42">
+        <v>139</v>
+      </c>
+      <c r="D42">
+        <v>526</v>
+      </c>
+      <c r="E42">
+        <v>908</v>
+      </c>
+      <c r="F42">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
